--- a/ficheiros/cassini_obl_sem_outliers.xlsx
+++ b/ficheiros/cassini_obl_sem_outliers.xlsx
@@ -834,36 +834,36 @@
         <v>0.2234794100406175</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.2593678590175936</v>
+        <v>0.2450517615998986</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.2613372240167041</v>
+        <v>-0.2621209776733322</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.3681967285950913</v>
+        <v>0.358828333328957</v>
       </c>
       <c r="AW2" t="n">
-        <v>314.7833019718198</v>
+        <v>313.0724022461699</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.1822120779014053</v>
+        <v>0.1672537736749135</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.1363746278700962</v>
+        <v>0.1270726553593863</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.2275945527903843</v>
+        <v>0.2100506713833225</v>
       </c>
       <c r="BA2" t="n">
-        <v>36.81261447123003</v>
+        <v>37.22610099831799</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -997,36 +997,36 @@
         <v>-0.146119919880752</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.601247200525915</v>
+        <v>0.5270638008898546</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.301079647520287</v>
+        <v>1.276629843706943</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.433285193299562</v>
+        <v>1.381151696249067</v>
       </c>
       <c r="AW3" t="n">
-        <v>65.19767744072925</v>
+        <v>67.56644223240411</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1402586310350469</v>
+        <v>0.06349673461318017</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0.6973465754250054</v>
+        <v>-0.7447785421601111</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.711311977852762</v>
+        <v>0.7474803757749611</v>
       </c>
       <c r="BA3" t="n">
-        <v>281.3722767815403</v>
+        <v>274.8730171072325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
@@ -1160,36 +1160,36 @@
         <v>0.1045876957253586</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.3387893528251109</v>
+        <v>0.3105655692880048</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.7340710551455852</v>
+        <v>0.7182097746840328</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.8084791522297964</v>
+        <v>0.7824808325312971</v>
       </c>
       <c r="AW4" t="n">
-        <v>65.22567486151603</v>
+        <v>66.61556061588416</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.1724659335283637</v>
+        <v>0.143150126467183</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.3947851435017417</v>
+        <v>-0.4283795520625285</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.4308129614548531</v>
+        <v>0.4516646979041677</v>
       </c>
       <c r="BA4" t="n">
-        <v>293.5986040007803</v>
+        <v>288.4779050348329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
@@ -1323,36 +1323,36 @@
         <v>0.1184735032962377</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.04343147370163825</v>
+        <v>0.06692850878448377</v>
       </c>
       <c r="AU5" t="n">
-        <v>-1.371030506283257</v>
+        <v>-1.355005649283463</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.371718244417278</v>
+        <v>1.35665755991636</v>
       </c>
       <c r="AW5" t="n">
-        <v>271.8144076678665</v>
+        <v>272.8277425206961</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.2087105367667413</v>
+        <v>0.2327883563356553</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.7285180151017269</v>
+        <v>0.7462975463909921</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.7578249048990283</v>
+        <v>0.7817611186255499</v>
       </c>
       <c r="BA5" t="n">
-        <v>74.01370992113833</v>
+        <v>72.67602968232333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>22</v>
@@ -1486,36 +1486,36 @@
         <v>-0.2280325696837696</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.2585730238002555</v>
+        <v>0.2443961118623273</v>
       </c>
       <c r="AU6" t="n">
-        <v>-1.062669076851739</v>
+        <v>-1.051314994462912</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.093675260547725</v>
+        <v>1.079348264961767</v>
       </c>
       <c r="AW6" t="n">
-        <v>283.6756823851511</v>
+        <v>283.0869425516838</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.1823096154622038</v>
+        <v>0.1674949983956853</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.5639732852803321</v>
+        <v>0.5742274117064997</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.5927079064765944</v>
+        <v>0.5981569149000256</v>
       </c>
       <c r="BA6" t="n">
-        <v>72.08609062676862</v>
+        <v>73.73869151827854</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>24</v>
@@ -1649,36 +1649,36 @@
         <v>-0.07551677972667623</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.1186784648534451</v>
+        <v>0.1289988208762655</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.4828730689898956</v>
+        <v>0.4708167040076406</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.497243379820879</v>
+        <v>0.4881690942287161</v>
       </c>
       <c r="AW7" t="n">
-        <v>76.19177939645023</v>
+        <v>74.67759079206974</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1994766631105765</v>
+        <v>0.2099516298877489</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0.2607433963225738</v>
+        <v>-0.2882074449673966</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.328295686617356</v>
+        <v>0.3565714770241126</v>
       </c>
       <c r="BA7" t="n">
-        <v>307.4170926809912</v>
+        <v>306.0723647571135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>29</v>
@@ -1812,36 +1812,36 @@
         <v>-0.4463116423207014</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5892333644415197</v>
+        <v>0.5171537361316039</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.263518236973177</v>
+        <v>1.239637378773619</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.394157198071609</v>
+        <v>1.34318606962982</v>
       </c>
       <c r="AW8" t="n">
-        <v>64.99831890008717</v>
+        <v>67.35500721775193</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.1417328992128319</v>
+        <v>0.06714281645711494</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0.6773034326701584</v>
+        <v>-0.7238187321615133</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.6919740996786329</v>
+        <v>0.7269262100307666</v>
       </c>
       <c r="BA8" t="n">
-        <v>281.8191960530697</v>
+        <v>275.2997004204356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>30</v>
@@ -1975,36 +1975,36 @@
         <v>0.2236585542084168</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.2048034473706119</v>
+        <v>0.2000422534695356</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0.5645735676586114</v>
+        <v>-0.5607641767782704</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.6005728643167786</v>
+        <v>0.5953766582013282</v>
       </c>
       <c r="AW9" t="n">
-        <v>289.9386332714504</v>
+        <v>289.6329191701352</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.1889079055426026</v>
+        <v>0.1838135393678592</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.2981845608716757</v>
+        <v>0.2962829180951926</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.3529875764368017</v>
+        <v>0.3486703096191904</v>
       </c>
       <c r="BA9" t="n">
-        <v>57.64464644175376</v>
+        <v>58.18458893533099</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>36</v>
@@ -2138,36 +2138,36 @@
         <v>-0.1693488890527517</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5015600260948048</v>
+        <v>0.4448330839698423</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.121015689237657</v>
+        <v>1.099293328237921</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.228103674488925</v>
+        <v>1.185884604041441</v>
       </c>
       <c r="AW10" t="n">
-        <v>65.89550810680252</v>
+        <v>67.96910149532073</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.1524916620140515</v>
+        <v>0.0937508178396473</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0.6012626539669674</v>
+        <v>-0.6443002507906779</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.6202987071074781</v>
+        <v>0.6510852701563238</v>
       </c>
       <c r="BA10" t="n">
-        <v>284.2312354354839</v>
+        <v>278.2788900610955</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>39</v>
@@ -2301,36 +2301,36 @@
         <v>-0.08985267301596317</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.1853675922084093</v>
+        <v>0.184009856994642</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.4913258056975476</v>
+        <v>-0.4886259043779104</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.5251306423981441</v>
+        <v>0.5221253699068064</v>
       </c>
       <c r="AW11" t="n">
-        <v>290.6705076754079</v>
+        <v>290.6356901762477</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1912929607882699</v>
+        <v>0.1897121314687036</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.2590988255897871</v>
+        <v>0.2554096081964364</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.3220639661141083</v>
+        <v>0.318158389462632</v>
       </c>
       <c r="BA11" t="n">
-        <v>53.56150541154795</v>
+        <v>53.39592057479032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
         <v>40</v>
@@ -2464,36 +2464,36 @@
         <v>0.2740192199390067</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.2140787427455162</v>
+        <v>0.2076933298760631</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0.1008894716476377</v>
+        <v>-0.1041035399176527</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.2366609253443424</v>
+        <v>0.2323231936298945</v>
       </c>
       <c r="AW12" t="n">
-        <v>334.766777042107</v>
+        <v>333.3782861663174</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1877696951729323</v>
+        <v>0.1809985778663037</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.0507581092520268</v>
+        <v>0.03754049042271852</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.1945092390612246</v>
+        <v>0.1848506792273229</v>
       </c>
       <c r="BA12" t="n">
-        <v>15.1267209821653</v>
+        <v>11.71744825227325</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
         <v>49</v>
@@ -2627,36 +2627,36 @@
         <v>-0.04452939767180426</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.2491287899491318</v>
+        <v>-0.1744008333259773</v>
       </c>
       <c r="AU13" t="n">
-        <v>-1.211882001607415</v>
+        <v>-1.198267779414911</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.237223965093432</v>
+        <v>1.210892778840777</v>
       </c>
       <c r="AW13" t="n">
-        <v>258.3834357162299</v>
+        <v>261.7190811468456</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.244611832885219</v>
+        <v>0.3215775372484339</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.6435947879924135</v>
+        <v>0.6574903804464935</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.6885123091989468</v>
+        <v>0.7319191983015904</v>
       </c>
       <c r="BA13" t="n">
-        <v>69.18964517370468</v>
+        <v>63.93681394075522</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
         <v>52</v>
@@ -2790,36 +2790,36 @@
         <v>-0.1020668253127647</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.07409360547289669</v>
+        <v>0.09222132194962047</v>
       </c>
       <c r="AU14" t="n">
-        <v>1.076324922779427</v>
+        <v>1.055279496303255</v>
       </c>
       <c r="AV14" t="n">
-        <v>1.078872189727826</v>
+        <v>1.059301462068371</v>
       </c>
       <c r="AW14" t="n">
-        <v>86.06200330384689</v>
+        <v>85.00558603761345</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.204947858067293</v>
+        <v>0.2234826989950551</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0.5774152158942577</v>
+        <v>-0.6193621571458353</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.6127087040940283</v>
+        <v>0.6584481744636071</v>
       </c>
       <c r="BA14" t="n">
-        <v>289.541818206056</v>
+        <v>289.8408215376951</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
         <v>65</v>
@@ -2953,36 +2953,36 @@
         <v>-0.2319668202126356</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.3846853676632627</v>
+        <v>0.3484246241308206</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.7069586751509227</v>
+        <v>0.6915080680227876</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.8048437118256981</v>
+        <v>0.7743275320181453</v>
       </c>
       <c r="AW15" t="n">
-        <v>61.44756530584221</v>
+        <v>63.25820231121878</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.1668338411901868</v>
+        <v>0.12922113449203</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0.3803177075151424</v>
+        <v>-0.4132504521426736</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.4153012030031286</v>
+        <v>0.4329827222829238</v>
       </c>
       <c r="BA15" t="n">
-        <v>293.6856037660831</v>
+        <v>287.3641755028166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
         <v>66</v>
@@ -3116,36 +3116,36 @@
         <v>-0.06431154171869252</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.07301755652685944</v>
+        <v>0.09133370248624795</v>
       </c>
       <c r="AU16" t="n">
-        <v>-0.4569337854105862</v>
+        <v>-0.454754822703383</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.4627310750433785</v>
+        <v>0.463835955895866</v>
       </c>
       <c r="AW16" t="n">
-        <v>279.0790469131742</v>
+        <v>281.3562924412206</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.205079904543351</v>
+        <v>0.2238092693342682</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.2407469010427946</v>
+        <v>0.2362183637734256</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.3162543874940221</v>
+        <v>0.3254069827519586</v>
       </c>
       <c r="BA16" t="n">
-        <v>49.57403006572498</v>
+        <v>46.5451601529187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
         <v>68</v>
@@ -3279,36 +3279,36 @@
         <v>0.1728293878846991</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.1049517185635974</v>
+        <v>0.1176757976806052</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.2252729318548227</v>
+        <v>0.2171184562318515</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.2485211400583865</v>
+        <v>0.246957521440974</v>
       </c>
       <c r="AW17" t="n">
-        <v>65.01980284533923</v>
+        <v>61.54279795339547</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.2011611296787476</v>
+        <v>0.2141175632392719</v>
       </c>
       <c r="AY17" t="n">
-        <v>-0.1232853976195999</v>
+        <v>-0.1444628450889623</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.2359345022667366</v>
+        <v>0.2582941046534378</v>
       </c>
       <c r="BA17" t="n">
-        <v>328.4971635196111</v>
+        <v>325.9928784478278</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
         <v>81</v>
@@ -3442,36 +3442,36 @@
         <v>-0.05379556129179715</v>
       </c>
       <c r="AT18" t="n">
-        <v>-0.2792796212242606</v>
+        <v>-0.199271881037351</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.453552182043152</v>
+        <v>1.426792864862873</v>
       </c>
       <c r="AV18" t="n">
-        <v>1.480138862659033</v>
+        <v>1.440641232852846</v>
       </c>
       <c r="AW18" t="n">
-        <v>100.8760372645538</v>
+        <v>97.95073933735323</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.2483117677578467</v>
+        <v>0.3307280198852478</v>
       </c>
       <c r="AY18" t="n">
-        <v>-0.7787074383724248</v>
+        <v>-0.8298604202646548</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.817339591958918</v>
+        <v>0.8933360735238706</v>
       </c>
       <c r="BA18" t="n">
-        <v>287.686277889437</v>
+        <v>291.7289883407118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
         <v>83</v>
@@ -3605,36 +3605,36 @@
         <v>-0.02239204640046091</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.2445667761456625</v>
+        <v>0.232842531448707</v>
       </c>
       <c r="AU19" t="n">
-        <v>-0.5713519713015484</v>
+        <v>-0.5674399074127943</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.6214949582293069</v>
+        <v>0.6133544594898472</v>
       </c>
       <c r="AW19" t="n">
-        <v>293.1733090889364</v>
+        <v>292.3102386136428</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.1840283808142767</v>
+        <v>0.171745757679924</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.3018015845639825</v>
+        <v>0.3000653653031209</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.353483580086056</v>
+        <v>0.3457395388663937</v>
       </c>
       <c r="BA19" t="n">
-        <v>58.62657631415756</v>
+        <v>60.21485474454069</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
         <v>87</v>
@@ -3768,36 +3768,36 @@
         <v>-0.1000397492095133</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.6458906291331529</v>
+        <v>0.5638896128470133</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.9600193786288448</v>
+        <v>0.940735641296918</v>
       </c>
       <c r="AV20" t="n">
-        <v>1.15707040068655</v>
+        <v>1.096793071770185</v>
       </c>
       <c r="AW20" t="n">
-        <v>56.0677616172418</v>
+        <v>59.0609600319568</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.1347802488030505</v>
+        <v>0.04994789031795346</v>
       </c>
       <c r="AY20" t="n">
-        <v>-0.5153534192088912</v>
+        <v>-0.5544619824273614</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.5326864576443702</v>
+        <v>0.5567071777016118</v>
       </c>
       <c r="BA20" t="n">
-        <v>284.6562837195856</v>
+        <v>275.1475117477167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n">
         <v>92</v>
@@ -3931,36 +3931,36 @@
         <v>-0.0646788002383103</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.28718232876039</v>
+        <v>0.2679955735872744</v>
       </c>
       <c r="AU21" t="n">
-        <v>-0.2833450268769286</v>
+        <v>-0.2837954266279394</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.4034328868698338</v>
+        <v>0.3903350761042446</v>
       </c>
       <c r="AW21" t="n">
-        <v>315.3853590633838</v>
+        <v>313.3598543455163</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.1787988477444672</v>
+        <v>0.1588123539305898</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.1481182106595332</v>
+        <v>0.1393533274565741</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.2321810334280796</v>
+        <v>0.211283491153933</v>
       </c>
       <c r="BA21" t="n">
-        <v>39.63858722772986</v>
+        <v>41.26603158042469</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
         <v>100</v>
@@ -4094,36 +4094,36 @@
         <v>0.008401514567878948</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.03018983800468869</v>
+        <v>0.05600564731541624</v>
       </c>
       <c r="AU22" t="n">
-        <v>-0.3532378488299728</v>
+        <v>-0.3526295765581271</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.3545256043853195</v>
+        <v>0.3570493674476722</v>
       </c>
       <c r="AW22" t="n">
-        <v>274.8849721204068</v>
+        <v>279.0245047124503</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.2103354733808834</v>
+        <v>0.2368070633630766</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.1854137165401497</v>
+        <v>0.1783545323384914</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.2803912581440286</v>
+        <v>0.2964589760225285</v>
       </c>
       <c r="BA22" t="n">
-        <v>41.39663591213632</v>
+        <v>36.98573970306016</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
         <v>103</v>
@@ -4257,36 +4257,36 @@
         <v>0.1607064056023433</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.2383496477699432</v>
+        <v>0.2277140991660522</v>
       </c>
       <c r="AU23" t="n">
-        <v>-0.5112614671372799</v>
+        <v>-0.5082595987996625</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.5640911649471386</v>
+        <v>0.5569394318334809</v>
       </c>
       <c r="AW23" t="n">
-        <v>294.9948918783234</v>
+        <v>294.1336751060834</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.1847913106942201</v>
+        <v>0.1736325953837916</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.2697366930800857</v>
+        <v>0.2665339954302198</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.3269643896540848</v>
+        <v>0.3181016329724007</v>
       </c>
       <c r="BA23" t="n">
-        <v>55.58572292737466</v>
+        <v>56.91791499146908</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="C24" t="n">
         <v>107</v>
@@ -4420,36 +4420,36 @@
         <v>0.07679432606869968</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.05028307235176946</v>
+        <v>0.07258030774722625</v>
       </c>
       <c r="AU24" t="n">
-        <v>-0.2572609946889579</v>
+        <v>-0.2581064913089897</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.262128988769814</v>
+        <v>0.2681172540671705</v>
       </c>
       <c r="AW24" t="n">
-        <v>281.05934818887</v>
+        <v>285.7061398411582</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.2078697483802606</v>
+        <v>0.2307089631039947</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.1341995113042515</v>
+        <v>0.1247980604766111</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.2474254253830288</v>
+        <v>0.262299793280979</v>
       </c>
       <c r="BA24" t="n">
-        <v>32.84605376987867</v>
+        <v>28.4104123514913</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="C25" t="n">
         <v>123</v>
@@ -4583,36 +4583,36 @@
         <v>0.2948171400644333</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.1544170004181833</v>
+        <v>0.1584790967285083</v>
       </c>
       <c r="AU25" t="n">
-        <v>-0.2228921018057636</v>
+        <v>-0.2242581867256416</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.2711558575165584</v>
+        <v>0.2746040029084729</v>
       </c>
       <c r="AW25" t="n">
-        <v>304.7137572902197</v>
+        <v>305.2481393159724</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.1950910376256269</v>
+        <v>0.1991053336060257</v>
       </c>
       <c r="AY25" t="n">
-        <v>0.1158599277702428</v>
+        <v>0.1056197214791863</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0.2269009383514524</v>
+        <v>0.2253851357913997</v>
       </c>
       <c r="BA25" t="n">
-        <v>30.70506909561593</v>
+        <v>27.94467991470129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="C26" t="n">
         <v>125</v>
@@ -4746,36 +4746,36 @@
         <v>0.6317347317448244</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.1428330617589691</v>
+        <v>0.1489236490378637</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.1077737177157282</v>
+        <v>0.1013990118493745</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.1789314331293161</v>
+        <v>0.180166625230042</v>
       </c>
       <c r="AW26" t="n">
-        <v>37.03613119695231</v>
+        <v>34.25013364203213</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.1965125512886005</v>
+        <v>0.2026209457826788</v>
       </c>
       <c r="AY26" t="n">
-        <v>-0.06058664674019642</v>
+        <v>-0.07889658526357091</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.2056402795591763</v>
+        <v>0.2174394601633272</v>
       </c>
       <c r="BA26" t="n">
-        <v>342.8649830707775</v>
+        <v>338.7250462812839</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="C27" t="n">
         <v>132</v>
@@ -4909,36 +4909,36 @@
         <v>-0.6333827504511947</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.3551973935223169</v>
+        <v>0.3241003590689751</v>
       </c>
       <c r="AU27" t="n">
-        <v>0.4748332517381411</v>
+        <v>0.4628986664945699</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.5929855017799883</v>
+        <v>0.565080718297032</v>
       </c>
       <c r="AW27" t="n">
-        <v>53.20179981540636</v>
+        <v>55.00205787520532</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.1704524340857408</v>
+        <v>0.1381704464665268</v>
       </c>
       <c r="AY27" t="n">
-        <v>-0.2564532697657531</v>
+        <v>-0.283721110733253</v>
       </c>
       <c r="AZ27" t="n">
-        <v>0.3079323170102481</v>
+        <v>0.3155768384284089</v>
       </c>
       <c r="BA27" t="n">
-        <v>303.6101183918033</v>
+        <v>295.965799020253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C28" t="n">
         <v>141</v>
@@ -5072,36 +5072,36 @@
         <v>0.04520930722493449</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.01352082863539891</v>
+        <v>0.04225558770538751</v>
       </c>
       <c r="AU28" t="n">
-        <v>0.7010016739419161</v>
+        <v>0.6856412979754922</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.7011320558042945</v>
+        <v>0.6869421549023217</v>
       </c>
       <c r="AW28" t="n">
-        <v>88.8950235073777</v>
+        <v>86.47336208829471</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.2123809973830182</v>
+        <v>0.2418659448053403</v>
       </c>
       <c r="AY28" t="n">
-        <v>-0.3771389923422079</v>
+        <v>-0.4099263593654442</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0.4328273415512259</v>
+        <v>0.4759608758702623</v>
       </c>
       <c r="BA28" t="n">
-        <v>299.3854798742636</v>
+        <v>300.5415786826221</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
         <v>148</v>
@@ -5235,36 +5235,36 @@
         <v>0.2079616061060615</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.3532943143344295</v>
+        <v>0.3225305325906082</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.4695216290047106</v>
+        <v>0.4576674993247684</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.5875946159081716</v>
+        <v>0.5598977445849985</v>
       </c>
       <c r="AW29" t="n">
-        <v>53.0401527683385</v>
+        <v>54.82662257912273</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.1706859689089895</v>
+        <v>0.1387480124018186</v>
       </c>
       <c r="AY29" t="n">
-        <v>-0.2536189349749306</v>
+        <v>-0.2807571484737072</v>
       </c>
       <c r="AZ29" t="n">
-        <v>0.3057061729180793</v>
+        <v>0.3131702210692174</v>
       </c>
       <c r="BA29" t="n">
-        <v>303.9406198780885</v>
+        <v>296.2982264893612</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="C30" t="n">
         <v>151</v>
@@ -5398,36 +5398,36 @@
         <v>0.4395367316462711</v>
       </c>
       <c r="AT30" t="n">
-        <v>-0.9520801459252494</v>
+        <v>-0.7542567103902529</v>
       </c>
       <c r="AU30" t="n">
-        <v>-2.594455143481763</v>
+        <v>-2.559898978126076</v>
       </c>
       <c r="AV30" t="n">
-        <v>2.763630600460927</v>
+        <v>2.668704922500734</v>
       </c>
       <c r="AW30" t="n">
-        <v>249.8485154176769</v>
+        <v>253.5827514875525</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.3308739399562916</v>
+        <v>0.534916404050765</v>
       </c>
       <c r="AY30" t="n">
-        <v>1.381349586014434</v>
+        <v>1.428986177349699</v>
       </c>
       <c r="AZ30" t="n">
-        <v>1.42042396590752</v>
+        <v>1.525823402094458</v>
       </c>
       <c r="BA30" t="n">
-        <v>76.52976031076383</v>
+        <v>69.4774766138532</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="C31" t="n">
         <v>160</v>
@@ -5561,36 +5561,36 @@
         <v>0.1179870521690415</v>
       </c>
       <c r="AT31" t="n">
-        <v>-0.9277041828594862</v>
+        <v>-0.7341492800216788</v>
       </c>
       <c r="AU31" t="n">
-        <v>-2.317515860980385</v>
+        <v>-2.287154516526494</v>
       </c>
       <c r="AV31" t="n">
-        <v>2.496300225692143</v>
+        <v>2.402093034797755</v>
       </c>
       <c r="AW31" t="n">
-        <v>248.1837191178537</v>
+        <v>252.2039902569639</v>
       </c>
       <c r="AX31" t="n">
-        <v>0.3278826633650124</v>
+        <v>0.5275185374794085</v>
       </c>
       <c r="AY31" t="n">
-        <v>1.23357202673885</v>
+        <v>1.274450054828508</v>
       </c>
       <c r="AZ31" t="n">
-        <v>1.27640392748061</v>
+        <v>1.379310969156992</v>
       </c>
       <c r="BA31" t="n">
-        <v>75.11498636871667</v>
+        <v>67.5144283676526</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
         <v>174</v>
@@ -5724,36 +5724,36 @@
         <v>-0.04221608805687029</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.1298244370791154</v>
+        <v>0.1381929954741301</v>
       </c>
       <c r="AU32" t="n">
-        <v>-0.4006535171114656</v>
+        <v>-0.3993270360157098</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.4211622314936332</v>
+        <v>0.4225628777959617</v>
       </c>
       <c r="AW32" t="n">
-        <v>287.9539676069202</v>
+        <v>289.0889312903599</v>
       </c>
       <c r="AX32" t="n">
-        <v>0.198108894144249</v>
+        <v>0.2065689362435595</v>
       </c>
       <c r="AY32" t="n">
-        <v>0.2107151893639803</v>
+        <v>0.2048131605864955</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0.2892196828844042</v>
+        <v>0.290893719716025</v>
       </c>
       <c r="BA32" t="n">
-        <v>46.76618439880193</v>
+        <v>44.75546353407892</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="C33" t="n">
         <v>177</v>
@@ -5887,36 +5887,36 @@
         <v>-0.2440269960140921</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.06733031775454271</v>
+        <v>0.08664236958197268</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.2263446994189353</v>
+        <v>0.2181739896491172</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.2361467650508384</v>
+        <v>0.2347483545548131</v>
       </c>
       <c r="AW33" t="n">
-        <v>73.43393980270878</v>
+        <v>68.34073033697761</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.2057778094492105</v>
+        <v>0.225535290721958</v>
       </c>
       <c r="AY33" t="n">
-        <v>-0.1238573034659094</v>
+        <v>-0.1450609068810849</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0.2401773063458785</v>
+        <v>0.2681582258037238</v>
       </c>
       <c r="BA33" t="n">
-        <v>328.9563385748136</v>
+        <v>327.2514855486629</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="C34" t="n">
         <v>195</v>
@@ -6050,36 +6050,36 @@
         <v>-0.2286329225120456</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.1388069831928984</v>
+        <v>0.1456025866368718</v>
       </c>
       <c r="AU34" t="n">
-        <v>0.677238554713281</v>
+        <v>0.6622381205663483</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.6913171765356675</v>
+        <v>0.6780556330911182</v>
       </c>
       <c r="AW34" t="n">
-        <v>78.41705947092531</v>
+        <v>77.59999234938776</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.1970066082633689</v>
+        <v>0.2038428212818021</v>
       </c>
       <c r="AY34" t="n">
-        <v>-0.3644587552567922</v>
+        <v>-0.3966661953633087</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0.4142967390443313</v>
+        <v>0.445977540165564</v>
       </c>
       <c r="BA34" t="n">
-        <v>298.3932476186723</v>
+        <v>297.1981817554801</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="C35" t="n">
         <v>198</v>
@@ -6213,36 +6213,36 @@
         <v>0.1069309720909735</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.4893772066647194</v>
+        <v>0.4347836269402896</v>
       </c>
       <c r="AU35" t="n">
-        <v>1.077855076799729</v>
+        <v>1.056786472961323</v>
       </c>
       <c r="AV35" t="n">
-        <v>1.183748967047453</v>
+        <v>1.142731137096293</v>
       </c>
       <c r="AW35" t="n">
-        <v>65.58058504361195</v>
+        <v>67.636729131584</v>
       </c>
       <c r="AX35" t="n">
-        <v>0.1539866668464218</v>
+        <v>0.09744818447757456</v>
       </c>
       <c r="AY35" t="n">
-        <v>-0.5782317213188168</v>
+        <v>-0.6202160052060376</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0.5983843389543152</v>
+        <v>0.6278248495971716</v>
       </c>
       <c r="BA35" t="n">
-        <v>284.9121310310937</v>
+        <v>278.9292981310135</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="C36" t="n">
         <v>211</v>
@@ -6376,36 +6376,36 @@
         <v>0.2999534566274493</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.1046461651477008</v>
+        <v>0.1174237504479504</v>
       </c>
       <c r="AU36" t="n">
-        <v>-1.171858107471474</v>
+        <v>-1.158850130323646</v>
       </c>
       <c r="AV36" t="n">
-        <v>1.176521246695845</v>
+        <v>1.164784083734146</v>
       </c>
       <c r="AW36" t="n">
-        <v>275.1029402374444</v>
+        <v>275.7859080814351</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.2011986254190345</v>
+        <v>0.214210295714913</v>
       </c>
       <c r="AY36" t="n">
-        <v>0.6222376394698511</v>
+        <v>0.6351564690125451</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0.6539576185377164</v>
+        <v>0.670305744357569</v>
       </c>
       <c r="BA36" t="n">
-        <v>72.08154591112047</v>
+        <v>71.36301554038744</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="C37" t="n">
         <v>213</v>
@@ -6539,36 +6539,36 @@
         <v>-0.1017136843107609</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.3962678344463921</v>
+        <v>0.3579788576890919</v>
       </c>
       <c r="AU37" t="n">
-        <v>0.482031832865954</v>
+        <v>0.4699882101528498</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.6240055164122703</v>
+        <v>0.5907941944832112</v>
       </c>
       <c r="AW37" t="n">
-        <v>50.57712347343212</v>
+        <v>52.7043365627049</v>
       </c>
       <c r="AX37" t="n">
-        <v>0.1654125081472964</v>
+        <v>0.1257059690153844</v>
       </c>
       <c r="AY37" t="n">
-        <v>-0.2602945043486807</v>
+        <v>-0.2877380230509949</v>
       </c>
       <c r="AZ37" t="n">
-        <v>0.3084064312651485</v>
+        <v>0.3139986633019186</v>
       </c>
       <c r="BA37" t="n">
-        <v>302.4352294540633</v>
+        <v>293.5993842923531</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="C38" t="n">
         <v>218</v>
@@ -6702,36 +6702,36 @@
         <v>-0.1683380415492165</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.747804207831823</v>
+        <v>0.647956863103636</v>
       </c>
       <c r="AU38" t="n">
-        <v>1.41499235788271</v>
+        <v>1.388817109365052</v>
       </c>
       <c r="AV38" t="n">
-        <v>1.600441972118156</v>
+        <v>1.532534195281855</v>
       </c>
       <c r="AW38" t="n">
-        <v>62.14415763462765</v>
+        <v>64.98845219288231</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.1222740064251646</v>
+        <v>0.01901811515427462</v>
       </c>
       <c r="AY38" t="n">
-        <v>-0.7581315321699618</v>
+        <v>-0.8083434810387291</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0.7679286117326499</v>
+        <v>0.8085671722509091</v>
       </c>
       <c r="BA38" t="n">
-        <v>279.1619586456899</v>
+        <v>271.3477646214858</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="C39" t="n">
         <v>220</v>
@@ -6865,36 +6865,36 @@
         <v>-0.008566047107565422</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.1613568409380742</v>
+        <v>0.1642036853179415</v>
       </c>
       <c r="AU39" t="n">
-        <v>-0.08423715957645508</v>
+        <v>-0.08770346171560017</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.1820217821334143</v>
+        <v>0.1861578563179467</v>
       </c>
       <c r="AW39" t="n">
-        <v>332.4329607509317</v>
+        <v>331.8927077239151</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.1942394207094724</v>
+        <v>0.1969991598292548</v>
       </c>
       <c r="AY39" t="n">
-        <v>0.04187226968478349</v>
+        <v>0.02824825959417732</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0.1987013827986777</v>
+        <v>0.1990141531236719</v>
       </c>
       <c r="BA39" t="n">
-        <v>12.16511408175183</v>
+        <v>8.160176735284248</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>225</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>225</v>
+        <v>38</v>
       </c>
       <c r="C40" t="n">
         <v>225</v>
@@ -7028,36 +7028,36 @@
         <v>-0.3262634109961392</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.5072649473775152</v>
+        <v>0.4495390029581843</v>
       </c>
       <c r="AU40" t="n">
-        <v>-1.005589365028935</v>
+        <v>-0.9950998734849329</v>
       </c>
       <c r="AV40" t="n">
-        <v>1.126289349100492</v>
+        <v>1.091929060603466</v>
       </c>
       <c r="AW40" t="n">
-        <v>296.7684515836862</v>
+        <v>294.3111993286659</v>
       </c>
       <c r="AX40" t="n">
-        <v>0.1517915872132314</v>
+        <v>0.09201942998285895</v>
       </c>
       <c r="AY40" t="n">
-        <v>0.5335149825753497</v>
+        <v>0.5423761074781834</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0.5546881309178048</v>
+        <v>0.5501267285431205</v>
       </c>
       <c r="BA40" t="n">
-        <v>74.1182941297248</v>
+        <v>80.37089944751894</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="C41" t="n">
         <v>227</v>
@@ -7191,36 +7191,36 @@
         <v>0.6167638908766567</v>
       </c>
       <c r="AT41" t="n">
-        <v>-1.187376198580531</v>
+        <v>-0.9483495132880193</v>
       </c>
       <c r="AU41" t="n">
-        <v>-2.858369310534123</v>
+        <v>-2.819815616715764</v>
       </c>
       <c r="AV41" t="n">
-        <v>3.095179696295334</v>
+        <v>2.975017127955355</v>
       </c>
       <c r="AW41" t="n">
-        <v>247.4418377183064</v>
+        <v>251.4113768756216</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.3597481047402347</v>
+        <v>0.6063264565526693</v>
       </c>
       <c r="AY41" t="n">
-        <v>1.522176813964852</v>
+        <v>1.576254097185083</v>
       </c>
       <c r="AZ41" t="n">
-        <v>1.56411027483243</v>
+        <v>1.688848350447274</v>
       </c>
       <c r="BA41" t="n">
-        <v>76.70282505978906</v>
+        <v>68.96011790426742</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="C42" t="n">
         <v>232</v>
@@ -7354,36 +7354,36 @@
         <v>-0.2263470648998165</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.6345527894569272</v>
+        <v>0.5545371691628512</v>
       </c>
       <c r="AU42" t="n">
-        <v>1.254533056768276</v>
+        <v>1.230788297793751</v>
       </c>
       <c r="AV42" t="n">
-        <v>1.405884217541374</v>
+        <v>1.349944927013391</v>
       </c>
       <c r="AW42" t="n">
-        <v>63.1693510958977</v>
+        <v>65.74584121288072</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.1361715626283822</v>
+        <v>0.05338881385832242</v>
       </c>
       <c r="AY42" t="n">
-        <v>-0.6725088510263462</v>
+        <v>-0.7188048717352203</v>
       </c>
       <c r="AZ42" t="n">
-        <v>0.6861565777411389</v>
+        <v>0.7207848563028257</v>
       </c>
       <c r="BA42" t="n">
-        <v>281.4466567492873</v>
+        <v>274.2478108794891</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="C43" t="n">
         <v>242</v>
@@ -7517,36 +7517,36 @@
         <v>-0.03762042324977754</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.6131842432019896</v>
+        <v>0.5369105197156222</v>
       </c>
       <c r="AU43" t="n">
-        <v>-1.742275425674869</v>
+        <v>-1.720627292939384</v>
       </c>
       <c r="AV43" t="n">
-        <v>1.847029662734669</v>
+        <v>1.802451438288758</v>
       </c>
       <c r="AW43" t="n">
-        <v>289.3892388105627</v>
+        <v>287.3301917170115</v>
       </c>
       <c r="AX43" t="n">
-        <v>0.1387937864982501</v>
+        <v>0.05987395881819141</v>
       </c>
       <c r="AY43" t="n">
-        <v>0.9266180014439698</v>
+        <v>0.9534575773923235</v>
       </c>
       <c r="AZ43" t="n">
-        <v>0.9369549806530401</v>
+        <v>0.9553356702392103</v>
       </c>
       <c r="BA43" t="n">
-        <v>81.48126359679168</v>
+        <v>86.40673426055537</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="C44" t="n">
         <v>244</v>
@@ -7680,36 +7680,36 @@
         <v>0.2646730084738335</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.02461338038089694</v>
+        <v>0.05140569641004322</v>
       </c>
       <c r="AU44" t="n">
-        <v>-0.7674612523695105</v>
+        <v>-0.7605787059120509</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.7678558408857434</v>
+        <v>0.7623139205801318</v>
       </c>
       <c r="AW44" t="n">
-        <v>271.8369130725041</v>
+        <v>273.8666042558383</v>
       </c>
       <c r="AX44" t="n">
-        <v>0.2110197838677063</v>
+        <v>0.2384994637548206</v>
       </c>
       <c r="AY44" t="n">
-        <v>0.4064474500611203</v>
+        <v>0.4094971787061563</v>
       </c>
       <c r="AZ44" t="n">
-        <v>0.4579616565224214</v>
+        <v>0.4738881023824493</v>
       </c>
       <c r="BA44" t="n">
-        <v>62.56251920946546</v>
+        <v>59.78261039384537</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="C45" t="n">
         <v>259</v>
@@ -7843,36 +7843,36 @@
         <v>0.143565655560304</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.02779109276833083</v>
+        <v>0.05402695204574057</v>
       </c>
       <c r="AU45" t="n">
-        <v>0.9086659377590637</v>
+        <v>0.8901600549994244</v>
       </c>
       <c r="AV45" t="n">
-        <v>0.9090908267498999</v>
+        <v>0.8917980909734732</v>
       </c>
       <c r="AW45" t="n">
-        <v>88.24818335665209</v>
+        <v>86.52677773494347</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.2106298334623539</v>
+        <v>0.237535059100081</v>
       </c>
       <c r="AY45" t="n">
-        <v>-0.4879507117143286</v>
+        <v>-0.5258060201584559</v>
       </c>
       <c r="AZ45" t="n">
-        <v>0.5314704354965558</v>
+        <v>0.576970428303352</v>
       </c>
       <c r="BA45" t="n">
-        <v>293.3480275203971</v>
+        <v>294.311271466209</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="C46" t="n">
         <v>262</v>
@@ -8006,36 +8006,36 @@
         <v>-0.08397720801786218</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.2994454919538661</v>
+        <v>0.2781113051932848</v>
       </c>
       <c r="AU46" t="n">
-        <v>0.6580592048796844</v>
+        <v>0.6433492818398729</v>
       </c>
       <c r="AV46" t="n">
-        <v>0.7229865280752992</v>
+        <v>0.7008881483661945</v>
       </c>
       <c r="AW46" t="n">
-        <v>65.53240522144716</v>
+        <v>66.62181620775215</v>
       </c>
       <c r="AX46" t="n">
-        <v>0.1772939835921579</v>
+        <v>0.1550906037456494</v>
       </c>
       <c r="AY46" t="n">
-        <v>-0.354224463171893</v>
+        <v>-0.3859638409374906</v>
       </c>
       <c r="AZ46" t="n">
-        <v>0.3961163047987197</v>
+        <v>0.4159581491946162</v>
       </c>
       <c r="BA46" t="n">
-        <v>296.5885650481404</v>
+        <v>291.8915821288167</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="C47" t="n">
         <v>275</v>
@@ -8169,36 +8169,36 @@
         <v>0.2844463060424486</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.9536602705256609</v>
+        <v>0.8177649824955975</v>
       </c>
       <c r="AU47" t="n">
-        <v>-1.467046472945637</v>
+        <v>-1.449567254613555</v>
       </c>
       <c r="AV47" t="n">
-        <v>1.749769489207453</v>
+        <v>1.664327128975522</v>
       </c>
       <c r="AW47" t="n">
-        <v>303.0260656591911</v>
+        <v>299.4292667644812</v>
       </c>
       <c r="AX47" t="n">
-        <v>0.09701254619699971</v>
+        <v>-0.04345718810267657</v>
       </c>
       <c r="AY47" t="n">
-        <v>0.7797530911685605</v>
+        <v>0.7998758436051274</v>
       </c>
       <c r="AZ47" t="n">
-        <v>0.7857647977012908</v>
+        <v>0.8010554864557171</v>
       </c>
       <c r="BA47" t="n">
-        <v>82.90801984310379</v>
+        <v>93.10981755281931</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>289</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>289</v>
+        <v>46</v>
       </c>
       <c r="C48" t="n">
         <v>289</v>
@@ -8332,36 +8332,36 @@
         <v>0.0519755649096587</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.3509333751090411</v>
+        <v>0.3205830230316686</v>
       </c>
       <c r="AU48" t="n">
-        <v>-0.95304069650309</v>
+        <v>-0.9433471637378594</v>
       </c>
       <c r="AV48" t="n">
-        <v>1.015598741116056</v>
+        <v>0.9963319456829571</v>
       </c>
       <c r="AW48" t="n">
-        <v>290.2149664209315</v>
+        <v>288.7695934364167</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.170975689656403</v>
+        <v>0.1394645343839608</v>
       </c>
       <c r="AY48" t="n">
-        <v>0.505474489699831</v>
+        <v>0.5130531909013518</v>
       </c>
       <c r="AZ48" t="n">
-        <v>0.5336076706633697</v>
+        <v>0.5316708879043444</v>
       </c>
       <c r="BA48" t="n">
-        <v>71.31199987026864</v>
+        <v>74.79260929613402</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="C49" t="n">
         <v>292</v>
@@ -8495,36 +8495,36 @@
         <v>0.1804894174815386</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.4537909060721121</v>
+        <v>0.4054289278332005</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.5136670343883027</v>
+        <v>0.5011442308115093</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.6854049960797063</v>
+        <v>0.6446069776225183</v>
       </c>
       <c r="AW49" t="n">
-        <v>48.54152785148852</v>
+        <v>51.02691693824973</v>
       </c>
       <c r="AX49" t="n">
-        <v>0.1583536109399007</v>
+        <v>0.1082482789330035</v>
       </c>
       <c r="AY49" t="n">
-        <v>-0.2771753629467768</v>
+        <v>-0.3053909227562433</v>
       </c>
       <c r="AZ49" t="n">
-        <v>0.3192210016937841</v>
+        <v>0.3240081875414063</v>
       </c>
       <c r="BA49" t="n">
-        <v>299.7398460648148</v>
+        <v>289.517282781973</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>313</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>313</v>
+        <v>48</v>
       </c>
       <c r="C50" t="n">
         <v>313</v>
@@ -8658,36 +8658,36 @@
         <v>-0.07596219645177033</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.2078527726028884</v>
+        <v>0.2025576041292703</v>
       </c>
       <c r="AU50" t="n">
-        <v>-0.3258278847603228</v>
+        <v>-0.3256347933510775</v>
       </c>
       <c r="AV50" t="n">
-        <v>0.3864797350005486</v>
+        <v>0.3834939394976004</v>
       </c>
       <c r="AW50" t="n">
-        <v>302.5346988308468</v>
+        <v>301.8832312835502</v>
       </c>
       <c r="AX50" t="n">
-        <v>0.1885337100631503</v>
+        <v>0.1828880989600201</v>
       </c>
       <c r="AY50" t="n">
-        <v>0.1707874867273957</v>
+        <v>0.1630593762035079</v>
       </c>
       <c r="AZ50" t="n">
-        <v>0.2543881393713873</v>
+        <v>0.2450232987066479</v>
       </c>
       <c r="BA50" t="n">
-        <v>42.17256258282946</v>
+        <v>41.71955852665396</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>323</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>323</v>
+        <v>49</v>
       </c>
       <c r="C51" t="n">
         <v>323</v>
@@ -8821,36 +8821,36 @@
         <v>0.08380045663838076</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.6099067946666999</v>
+        <v>0.5342069929654327</v>
       </c>
       <c r="AU51" t="n">
-        <v>1.068269245856845</v>
+        <v>1.047345839347027</v>
       </c>
       <c r="AV51" t="n">
-        <v>1.230116043235011</v>
+        <v>1.175716980625311</v>
       </c>
       <c r="AW51" t="n">
-        <v>60.27666443566628</v>
+        <v>62.97578694915507</v>
       </c>
       <c r="AX51" t="n">
-        <v>0.1391959759443157</v>
+        <v>0.06086863241911325</v>
       </c>
       <c r="AY51" t="n">
-        <v>-0.5731166264591313</v>
+        <v>-0.6148669729861336</v>
       </c>
       <c r="AZ51" t="n">
-        <v>0.5897780830473323</v>
+        <v>0.6178724665185396</v>
       </c>
       <c r="BA51" t="n">
-        <v>283.651411274913</v>
+        <v>275.6535639425741</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c r="C52" t="n">
         <v>325</v>
@@ -8984,36 +8984,36 @@
         <v>0.05977819559352954</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.2532183065508045</v>
+        <v>0.2399790718485128</v>
       </c>
       <c r="AU52" t="n">
-        <v>0.491269320492412</v>
+        <v>0.4790857768340899</v>
       </c>
       <c r="AV52" t="n">
-        <v>0.5526889324290232</v>
+        <v>0.5358293912151489</v>
       </c>
       <c r="AW52" t="n">
-        <v>62.73175373155324</v>
+        <v>63.39323208920218</v>
       </c>
       <c r="AX52" t="n">
-        <v>0.1829667152583427</v>
+        <v>0.1691201027508202</v>
       </c>
       <c r="AY52" t="n">
-        <v>-0.2652237197454513</v>
+        <v>-0.2928926746653726</v>
       </c>
       <c r="AZ52" t="n">
-        <v>0.3222117943341632</v>
+        <v>0.3382125485949387</v>
       </c>
       <c r="BA52" t="n">
-        <v>304.6001648861774</v>
+        <v>300.0027050905791</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>334</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>334</v>
+        <v>51</v>
       </c>
       <c r="C53" t="n">
         <v>334</v>
@@ -9147,36 +9147,36 @@
         <v>0.2011746125389026</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5127209762245507</v>
+        <v>0.4540396136554816</v>
       </c>
       <c r="AU53" t="n">
-        <v>-1.022647708262581</v>
+        <v>-1.011899832663777</v>
       </c>
       <c r="AV53" t="n">
-        <v>1.143980390861384</v>
+        <v>1.109095686635467</v>
       </c>
       <c r="AW53" t="n">
-        <v>296.6276380844929</v>
+        <v>294.1657812923567</v>
       </c>
       <c r="AX53" t="n">
-        <v>0.1511220550463401</v>
+        <v>0.09036357854794552</v>
       </c>
       <c r="AY53" t="n">
-        <v>0.5426174844146863</v>
+        <v>0.5518949095641608</v>
       </c>
       <c r="AZ53" t="n">
-        <v>0.5632686835906567</v>
+        <v>0.5592437460811018</v>
       </c>
       <c r="BA53" t="n">
-        <v>74.4371777167332</v>
+        <v>80.70128190180515</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>336</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>336</v>
+        <v>52</v>
       </c>
       <c r="C54" t="n">
         <v>336</v>
@@ -9310,36 +9310,36 @@
         <v>0.9031746251408476</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.1345542089188881</v>
+        <v>0.1420945257509399</v>
       </c>
       <c r="AU54" t="n">
-        <v>-1.477364152767498</v>
+        <v>-1.459728651734804</v>
       </c>
       <c r="AV54" t="n">
-        <v>1.483478909529966</v>
+        <v>1.466628307017117</v>
       </c>
       <c r="AW54" t="n">
-        <v>275.2039824656614</v>
+        <v>275.5598324190237</v>
       </c>
       <c r="AX54" t="n">
-        <v>0.1975284840185758</v>
+        <v>0.2051334967128546</v>
       </c>
       <c r="AY54" t="n">
-        <v>0.785258707878801</v>
+        <v>0.8056332580776575</v>
       </c>
       <c r="AZ54" t="n">
-        <v>0.8097213967150436</v>
+        <v>0.8313390992816736</v>
       </c>
       <c r="BA54" t="n">
-        <v>75.88043210124245</v>
+        <v>75.7146822755309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>339</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>339</v>
+        <v>53</v>
       </c>
       <c r="C55" t="n">
         <v>339</v>
@@ -9473,36 +9473,36 @@
         <v>-0.1195147080878286</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.2373480632887746</v>
+        <v>0.2268879045185213</v>
       </c>
       <c r="AU55" t="n">
-        <v>-0.2476020006563213</v>
+        <v>-0.2485938028119653</v>
       </c>
       <c r="AV55" t="n">
-        <v>0.3429881249780305</v>
+        <v>0.3365664867649777</v>
       </c>
       <c r="AW55" t="n">
-        <v>313.7887004311704</v>
+        <v>312.3862432242989</v>
       </c>
       <c r="AX55" t="n">
-        <v>0.1849142193237018</v>
+        <v>0.1739365664856363</v>
       </c>
       <c r="AY55" t="n">
-        <v>0.1290453758912179</v>
+        <v>0.1194082021951246</v>
       </c>
       <c r="AZ55" t="n">
-        <v>0.2254905265127558</v>
+        <v>0.2109792594362866</v>
       </c>
       <c r="BA55" t="n">
-        <v>34.90988414879872</v>
+        <v>34.46976616550322</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>344</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>344</v>
+        <v>54</v>
       </c>
       <c r="C56" t="n">
         <v>344</v>
@@ -9636,36 +9636,36 @@
         <v>-0.151601880855383</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.4660018590628081</v>
+        <v>0.4155015918888499</v>
       </c>
       <c r="AU56" t="n">
-        <v>1.342054175400859</v>
+        <v>1.316983727219399</v>
       </c>
       <c r="AV56" t="n">
-        <v>1.420657292368879</v>
+        <v>1.380973464851106</v>
       </c>
       <c r="AW56" t="n">
-        <v>70.85145008320566</v>
+        <v>72.48978254226145</v>
       </c>
       <c r="AX56" t="n">
-        <v>0.1568551537203957</v>
+        <v>0.1045423740343719</v>
       </c>
       <c r="AY56" t="n">
-        <v>-0.7192109915813889</v>
+        <v>-0.7676429209640412</v>
       </c>
       <c r="AZ56" t="n">
-        <v>0.736116831528891</v>
+        <v>0.7747288313177377</v>
       </c>
       <c r="BA56" t="n">
-        <v>282.3031786654152</v>
+        <v>277.7551851418287</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>347</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>347</v>
+        <v>55</v>
       </c>
       <c r="C57" t="n">
         <v>347</v>
@@ -9799,36 +9799,36 @@
         <v>-0.07105053037916786</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.271396811101037</v>
+        <v>0.2549742953587583</v>
       </c>
       <c r="AU57" t="n">
-        <v>0.305606302533491</v>
+        <v>0.2962350110821876</v>
       </c>
       <c r="AV57" t="n">
-        <v>0.4087192694552137</v>
+        <v>0.3908542862558362</v>
       </c>
       <c r="AW57" t="n">
-        <v>48.39299332355831</v>
+        <v>49.28088593937564</v>
       </c>
       <c r="AX57" t="n">
-        <v>0.1807359547760236</v>
+        <v>0.1636031042729919</v>
       </c>
       <c r="AY57" t="n">
-        <v>-0.1661520842811981</v>
+        <v>-0.1892900270676589</v>
       </c>
       <c r="AZ57" t="n">
-        <v>0.245503565065331</v>
+        <v>0.2501933054161012</v>
       </c>
       <c r="BA57" t="n">
-        <v>317.4074120261987</v>
+        <v>310.8368097949381</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>359</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>359</v>
+        <v>56</v>
       </c>
       <c r="C58" t="n">
         <v>359</v>
@@ -9962,36 +9962,36 @@
         <v>-0.09848945285350774</v>
       </c>
       <c r="AT58" t="n">
-        <v>-0.03531173888556322</v>
+        <v>0.001974206883739338</v>
       </c>
       <c r="AU58" t="n">
-        <v>1.272217743730764</v>
+        <v>1.248205113424148</v>
       </c>
       <c r="AV58" t="n">
-        <v>1.272707706571512</v>
+        <v>1.248206674662097</v>
       </c>
       <c r="AW58" t="n">
-        <v>91.58989630140297</v>
+        <v>89.90937897402696</v>
       </c>
       <c r="AX58" t="n">
-        <v>0.2183734464084551</v>
+        <v>0.2566861518216624</v>
       </c>
       <c r="AY58" t="n">
-        <v>-0.6819455761173638</v>
+        <v>-0.7286731826750753</v>
       </c>
       <c r="AZ58" t="n">
-        <v>0.7160563740951893</v>
+        <v>0.7725622225341058</v>
       </c>
       <c r="BA58" t="n">
-        <v>287.7561686593153</v>
+        <v>289.4055834040333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>372</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>372</v>
+        <v>57</v>
       </c>
       <c r="C59" t="n">
         <v>372</v>
@@ -10125,36 +10125,36 @@
         <v>0.04898755794865248</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.1853675922084094</v>
+        <v>0.1840098569946421</v>
       </c>
       <c r="AU59" t="n">
-        <v>0.3078825202702263</v>
+        <v>0.2984767507714143</v>
       </c>
       <c r="AV59" t="n">
-        <v>0.3593783389814827</v>
+        <v>0.3506394133896667</v>
       </c>
       <c r="AW59" t="n">
-        <v>58.94901131067431</v>
+        <v>58.34631522654875</v>
       </c>
       <c r="AX59" t="n">
-        <v>0.1912929607882699</v>
+        <v>0.1897121314687035</v>
       </c>
       <c r="AY59" t="n">
-        <v>-0.1673666967351495</v>
+        <v>-0.1905601894652497</v>
       </c>
       <c r="AZ59" t="n">
-        <v>0.2541743653934796</v>
+        <v>0.2688938054984356</v>
       </c>
       <c r="BA59" t="n">
-        <v>318.8165591113172</v>
+        <v>314.872222981386</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>381</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>381</v>
+        <v>58</v>
       </c>
       <c r="C60" t="n">
         <v>381</v>
@@ -10288,36 +10288,36 @@
         <v>-0.765022490790598</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.1081514470957505</v>
+        <v>0.1203152141617113</v>
       </c>
       <c r="AU60" t="n">
-        <v>-0.3137837646452605</v>
+        <v>-0.3137731064623386</v>
       </c>
       <c r="AV60" t="n">
-        <v>0.3318990606552799</v>
+        <v>0.3360495694057716</v>
       </c>
       <c r="AW60" t="n">
-        <v>289.0174703516373</v>
+        <v>290.9791488043942</v>
       </c>
       <c r="AX60" t="n">
-        <v>0.2007684775800036</v>
+        <v>0.2131464768997673</v>
       </c>
       <c r="AY60" t="n">
-        <v>0.1643606242824949</v>
+        <v>0.1563385830933721</v>
       </c>
       <c r="AZ60" t="n">
-        <v>0.2594655977279529</v>
+        <v>0.2643353422802677</v>
       </c>
       <c r="BA60" t="n">
-        <v>39.30572955147216</v>
+        <v>36.25928541548922</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>396</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>396</v>
+        <v>59</v>
       </c>
       <c r="C61" t="n">
         <v>396</v>
@@ -10451,36 +10451,36 @@
         <v>-0.04757699604965429</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.2189361866862646</v>
+        <v>0.2117001752894873</v>
       </c>
       <c r="AU61" t="n">
-        <v>-0.9757031931912917</v>
+        <v>-0.9656663898219927</v>
       </c>
       <c r="AV61" t="n">
-        <v>0.9999648869057384</v>
+        <v>0.9885992821408685</v>
       </c>
       <c r="AW61" t="n">
-        <v>282.6470092435902</v>
+        <v>282.3651683793556</v>
       </c>
       <c r="AX61" t="n">
-        <v>0.1871736178686546</v>
+        <v>0.1795243911006546</v>
       </c>
       <c r="AY61" t="n">
-        <v>0.5175674236361959</v>
+        <v>0.5256991916175073</v>
       </c>
       <c r="AZ61" t="n">
-        <v>0.5503726021846024</v>
+        <v>0.5555075580650199</v>
       </c>
       <c r="BA61" t="n">
-        <v>70.11793042142718</v>
+        <v>71.14514773490247</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>398</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>398</v>
+        <v>60</v>
       </c>
       <c r="C62" t="n">
         <v>398</v>
@@ -10614,36 +10614,36 @@
         <v>-0.09256284979527568</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.1938001490122914</v>
+        <v>0.1909657687797748</v>
       </c>
       <c r="AU62" t="n">
-        <v>-0.08067652842704529</v>
+        <v>-0.08419676372379165</v>
       </c>
       <c r="AV62" t="n">
-        <v>0.2099218902264035</v>
+        <v>0.2087031860494957</v>
       </c>
       <c r="AW62" t="n">
-        <v>337.3986613649308</v>
+        <v>336.2073285824156</v>
       </c>
       <c r="AX62" t="n">
-        <v>0.1902581664006991</v>
+        <v>0.1871529328876176</v>
       </c>
       <c r="AY62" t="n">
-        <v>0.03997228144191736</v>
+        <v>0.02626137594737931</v>
       </c>
       <c r="AZ62" t="n">
-        <v>0.1944118133391795</v>
+        <v>0.1889864549513713</v>
       </c>
       <c r="BA62" t="n">
-        <v>11.86498990296698</v>
+        <v>7.98761474115902</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>399</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>399</v>
+        <v>61</v>
       </c>
       <c r="C63" t="n">
         <v>399</v>
@@ -10777,36 +10777,36 @@
         <v>-0.08077578746666435</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.1338793405217539</v>
+        <v>0.1415378351591993</v>
       </c>
       <c r="AU63" t="n">
-        <v>-0.371343625135044</v>
+        <v>-0.3704611032580077</v>
       </c>
       <c r="AV63" t="n">
-        <v>0.3947401243184886</v>
+        <v>0.3965783501512569</v>
       </c>
       <c r="AW63" t="n">
-        <v>289.8255939049513</v>
+        <v>290.9097847477172</v>
       </c>
       <c r="AX63" t="n">
-        <v>0.1976112999480673</v>
+        <v>0.2053383126760949</v>
       </c>
       <c r="AY63" t="n">
-        <v>0.1950751390981424</v>
+        <v>0.1884578172179409</v>
       </c>
       <c r="AZ63" t="n">
-        <v>0.2776770349908768</v>
+        <v>0.2787116278938081</v>
       </c>
       <c r="BA63" t="n">
-        <v>44.6299610120012</v>
+        <v>42.5454573418027</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>401</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>401</v>
+        <v>62</v>
       </c>
       <c r="C64" t="n">
         <v>401</v>
@@ -10940,36 +10940,36 @@
         <v>0.09649593601109825</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.4082618159390443</v>
+        <v>0.3678725446402424</v>
       </c>
       <c r="AU64" t="n">
-        <v>-0.788830420966373</v>
+        <v>-0.7816241940462701</v>
       </c>
       <c r="AV64" t="n">
-        <v>0.8882179593972592</v>
+        <v>0.8638672292769118</v>
       </c>
       <c r="AW64" t="n">
-        <v>297.3639751754146</v>
+        <v>295.2040879021243</v>
       </c>
       <c r="AX64" t="n">
-        <v>0.1639406764096779</v>
+        <v>0.1220659128460106</v>
       </c>
       <c r="AY64" t="n">
-        <v>0.4178502512472506</v>
+        <v>0.4214214836535569</v>
       </c>
       <c r="AZ64" t="n">
-        <v>0.4488600871642</v>
+        <v>0.4387438363825695</v>
       </c>
       <c r="BA64" t="n">
-        <v>68.5777811714935</v>
+        <v>73.84619254280979</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>409</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>409</v>
+        <v>63</v>
       </c>
       <c r="C65" t="n">
         <v>409</v>
@@ -11103,36 +11103,36 @@
         <v>0.1240987345350092</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.6393581878856764</v>
+        <v>0.5585010828773024</v>
       </c>
       <c r="AU65" t="n">
-        <v>-1.140666938118338</v>
+        <v>-1.128131416044317</v>
       </c>
       <c r="AV65" t="n">
-        <v>1.307631429773971</v>
+        <v>1.258810530398151</v>
       </c>
       <c r="AW65" t="n">
-        <v>299.2711795879702</v>
+        <v>296.3385114859507</v>
       </c>
       <c r="AX65" t="n">
-        <v>0.1355818720470129</v>
+        <v>0.05193042239693957</v>
       </c>
       <c r="AY65" t="n">
-        <v>0.6055937208595149</v>
+        <v>0.6177513456757664</v>
       </c>
       <c r="AZ65" t="n">
-        <v>0.6205853678360815</v>
+        <v>0.6199302330541274</v>
       </c>
       <c r="BA65" t="n">
-        <v>77.38057064905411</v>
+        <v>85.19480631328062</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>425</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>425</v>
+        <v>64</v>
       </c>
       <c r="C66" t="n">
         <v>425</v>
@@ -11266,36 +11266,36 @@
         <v>-0.04730896777780715</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.192122411273011</v>
+        <v>0.1895818236745784</v>
       </c>
       <c r="AU66" t="n">
-        <v>0.1973284137490959</v>
+        <v>0.1895972159203825</v>
       </c>
       <c r="AV66" t="n">
-        <v>0.2754079225187437</v>
+        <v>0.268120070402309</v>
       </c>
       <c r="AW66" t="n">
-        <v>45.7658584497831</v>
+        <v>45.00232584248923</v>
       </c>
       <c r="AX66" t="n">
-        <v>0.1904640486303479</v>
+        <v>0.1876621098954528</v>
       </c>
       <c r="AY66" t="n">
-        <v>-0.1083739244493892</v>
+        <v>-0.1288694000753941</v>
       </c>
       <c r="AZ66" t="n">
-        <v>0.2191379960692017</v>
+        <v>0.2276497084694048</v>
       </c>
       <c r="BA66" t="n">
-        <v>330.36015088008</v>
+        <v>325.5222342559373</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>435</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>435</v>
+        <v>65</v>
       </c>
       <c r="C67" t="n">
         <v>435</v>
@@ -11429,36 +11429,36 @@
         <v>-0.3757179390531699</v>
       </c>
       <c r="AT67" t="n">
-        <v>-0.4148613803800333</v>
+        <v>-0.3111115968310835</v>
       </c>
       <c r="AU67" t="n">
-        <v>1.510015776502004</v>
+        <v>1.482401200854644</v>
       </c>
       <c r="AV67" t="n">
-        <v>1.565968585322124</v>
+        <v>1.514695925253012</v>
       </c>
       <c r="AW67" t="n">
-        <v>105.3623883052151</v>
+        <v>101.8526471888659</v>
       </c>
       <c r="AX67" t="n">
-        <v>0.2649495736682417</v>
+        <v>0.3718757587884527</v>
       </c>
       <c r="AY67" t="n">
-        <v>-0.8088369747158795</v>
+        <v>-0.8613679220985144</v>
       </c>
       <c r="AZ67" t="n">
-        <v>0.8511260354697883</v>
+        <v>0.9382144089678008</v>
       </c>
       <c r="BA67" t="n">
-        <v>288.137169723116</v>
+        <v>293.3511597554797</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>436</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>436</v>
+        <v>66</v>
       </c>
       <c r="C68" t="n">
         <v>436</v>
@@ -11592,36 +11592,36 @@
         <v>0.0598308808678394</v>
       </c>
       <c r="AT68" t="n">
-        <v>-0.1011427441764302</v>
+        <v>-0.05232897496012004</v>
       </c>
       <c r="AU68" t="n">
-        <v>-1.368483928997805</v>
+        <v>-1.352497645202681</v>
       </c>
       <c r="AV68" t="n">
-        <v>1.372216498452343</v>
+        <v>1.353509586925477</v>
       </c>
       <c r="AW68" t="n">
-        <v>265.7730340084206</v>
+        <v>267.7842958295084</v>
       </c>
       <c r="AX68" t="n">
-        <v>0.2264518449757524</v>
+        <v>0.2766652185804283</v>
       </c>
       <c r="AY68" t="n">
-        <v>0.7271591360999775</v>
+        <v>0.7448765194574358</v>
       </c>
       <c r="AZ68" t="n">
-        <v>0.7616041276848411</v>
+        <v>0.794597176191295</v>
       </c>
       <c r="BA68" t="n">
-        <v>72.70237065828158</v>
+        <v>69.62378128722821</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>442</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>442</v>
+        <v>67</v>
       </c>
       <c r="C69" t="n">
         <v>442</v>
@@ -11755,36 +11755,36 @@
         <v>-0.1726222109226154</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.1790187472905011</v>
+        <v>0.1787727733658513</v>
       </c>
       <c r="AU69" t="n">
-        <v>0.1855183891545649</v>
+        <v>0.1779660786890757</v>
       </c>
       <c r="AV69" t="n">
-        <v>0.2578076503829257</v>
+        <v>0.2522531063453616</v>
       </c>
       <c r="AW69" t="n">
-        <v>46.0214668268835</v>
+        <v>44.87043709624924</v>
       </c>
       <c r="AX69" t="n">
-        <v>0.19207205415715</v>
+        <v>0.1916389438558985</v>
       </c>
       <c r="AY69" t="n">
-        <v>-0.1020719777056811</v>
+        <v>-0.1222792356493357</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0.2175094540954397</v>
+        <v>0.2273272888880479</v>
       </c>
       <c r="BA69" t="n">
-        <v>332.0126862935059</v>
+        <v>327.4592369470587</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>461</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>461</v>
+        <v>68</v>
       </c>
       <c r="C70" t="n">
         <v>461</v>
@@ -11918,36 +11918,36 @@
         <v>-0.1187078764589809</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.3735647292712864</v>
+        <v>0.3392513470989555</v>
       </c>
       <c r="AU70" t="n">
-        <v>-0.6659075196637306</v>
+        <v>-0.6605632155125337</v>
       </c>
       <c r="AV70" t="n">
-        <v>0.7635335170771689</v>
+        <v>0.7425868556584569</v>
       </c>
       <c r="AW70" t="n">
-        <v>299.2918106313978</v>
+        <v>297.1840768203012</v>
       </c>
       <c r="AX70" t="n">
-        <v>0.1681985013356036</v>
+        <v>0.1325961395652734</v>
       </c>
       <c r="AY70" t="n">
-        <v>0.3522573668810263</v>
+        <v>0.352828727996833</v>
       </c>
       <c r="AZ70" t="n">
-        <v>0.3903536708851308</v>
+        <v>0.3769215402805691</v>
       </c>
       <c r="BA70" t="n">
-        <v>64.47610629424778</v>
+        <v>69.40333819983238</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>463</v>
+        <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>463</v>
+        <v>69</v>
       </c>
       <c r="C71" t="n">
         <v>463</v>
@@ -12081,36 +12081,36 @@
         <v>-0.3726424532405314</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.07287671976447929</v>
+        <v>0.09121752798330608</v>
       </c>
       <c r="AU71" t="n">
-        <v>1.088086506473705</v>
+        <v>1.066862926372402</v>
       </c>
       <c r="AV71" t="n">
-        <v>1.090524305943606</v>
+        <v>1.070755406747624</v>
       </c>
       <c r="AW71" t="n">
-        <v>86.16822604722896</v>
+        <v>85.11305602198837</v>
       </c>
       <c r="AX71" t="n">
-        <v>0.2050971872127316</v>
+        <v>0.2238520119152944</v>
       </c>
       <c r="AY71" t="n">
-        <v>-0.5836913140911513</v>
+        <v>-0.6259252908493869</v>
       </c>
       <c r="AZ71" t="n">
-        <v>0.6186763340778676</v>
+        <v>0.6647497220483922</v>
       </c>
       <c r="BA71" t="n">
-        <v>289.3604319369228</v>
+        <v>289.6787648209159</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>466</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>466</v>
+        <v>70</v>
       </c>
       <c r="C72" t="n">
         <v>466</v>
@@ -12244,36 +12244,36 @@
         <v>0.3501756819048705</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.2382000075320172</v>
+        <v>0.2275906627850437</v>
       </c>
       <c r="AU72" t="n">
-        <v>-0.5098151471006287</v>
+        <v>-0.5068351862853593</v>
       </c>
       <c r="AV72" t="n">
-        <v>0.5627172716395763</v>
+        <v>0.5555892510153975</v>
       </c>
       <c r="AW72" t="n">
-        <v>295.0433070773034</v>
+        <v>294.1821183957887</v>
       </c>
       <c r="AX72" t="n">
-        <v>0.1848096736749817</v>
+        <v>0.1736780097336122</v>
       </c>
       <c r="AY72" t="n">
-        <v>0.2689649223041337</v>
+        <v>0.2657269279446323</v>
       </c>
       <c r="AZ72" t="n">
-        <v>0.32633839019325</v>
+        <v>0.3174505493772542</v>
       </c>
       <c r="BA72" t="n">
-        <v>55.50648167117734</v>
+        <v>56.83153701980998</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>475</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>475</v>
+        <v>71</v>
       </c>
       <c r="C73" t="n">
         <v>475</v>
@@ -12407,36 +12407,36 @@
         <v>-0.007163752448941454</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.2748954582754853</v>
+        <v>0.2578602861298567</v>
       </c>
       <c r="AU73" t="n">
-        <v>-0.2490515402970126</v>
+        <v>-0.2500213861627153</v>
       </c>
       <c r="AV73" t="n">
-        <v>0.3709368985485316</v>
+        <v>0.3591693482212773</v>
       </c>
       <c r="AW73" t="n">
-        <v>317.8238510659394</v>
+        <v>315.8842615293805</v>
       </c>
       <c r="AX73" t="n">
-        <v>0.1803066211178687</v>
+        <v>0.1625412990467944</v>
       </c>
       <c r="AY73" t="n">
-        <v>0.1298188646799509</v>
+        <v>0.1202170662663027</v>
       </c>
       <c r="AZ73" t="n">
-        <v>0.2221787911699361</v>
+        <v>0.2021677939670314</v>
       </c>
       <c r="BA73" t="n">
-        <v>35.75348909474809</v>
+        <v>36.48697603431981</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>478</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>478</v>
+        <v>72</v>
       </c>
       <c r="C74" t="n">
         <v>478</v>
@@ -12570,36 +12570,36 @@
         <v>-0.1275974020840641</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.392201907114561</v>
+        <v>0.3546249245342085</v>
       </c>
       <c r="AU74" t="n">
-        <v>0.5208817758327882</v>
+        <v>0.5082496900048853</v>
       </c>
       <c r="AV74" t="n">
-        <v>0.6520277297316562</v>
+        <v>0.6197391261578981</v>
       </c>
       <c r="AW74" t="n">
-        <v>53.02180203770096</v>
+        <v>55.0950691693203</v>
       </c>
       <c r="AX74" t="n">
-        <v>0.1659114551311237</v>
+        <v>0.1269399382254857</v>
       </c>
       <c r="AY74" t="n">
-        <v>-0.2810252208356271</v>
+        <v>-0.3094168527642701</v>
       </c>
       <c r="AZ74" t="n">
-        <v>0.3263461133358874</v>
+        <v>0.3344436225901701</v>
       </c>
       <c r="BA74" t="n">
-        <v>300.5567201283792</v>
+        <v>292.3061560694908</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>481</v>
+        <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>481</v>
+        <v>73</v>
       </c>
       <c r="C75" t="n">
         <v>481</v>
@@ -12733,36 +12733,36 @@
         <v>0.2091316125400056</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.1853675922084092</v>
+        <v>0.1840098569946419</v>
       </c>
       <c r="AU75" t="n">
-        <v>-1.031972919397122</v>
+        <v>-1.021083794098285</v>
       </c>
       <c r="AV75" t="n">
-        <v>1.04848903218401</v>
+        <v>1.037531561949484</v>
       </c>
       <c r="AW75" t="n">
-        <v>280.1831315120978</v>
+        <v>280.2156466318464</v>
       </c>
       <c r="AX75" t="n">
-        <v>0.1912929607882699</v>
+        <v>0.1897121314687036</v>
       </c>
       <c r="AY75" t="n">
-        <v>0.5475935099490383</v>
+        <v>0.557098512164006</v>
       </c>
       <c r="AZ75" t="n">
-        <v>0.5800445232785584</v>
+        <v>0.5885146090639958</v>
       </c>
       <c r="BA75" t="n">
-        <v>70.74396204925074</v>
+        <v>71.19444000803173</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>485</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>485</v>
+        <v>74</v>
       </c>
       <c r="C76" t="n">
         <v>485</v>
@@ -12896,36 +12896,36 @@
         <v>0.2132304580869912</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.5430263823009535</v>
+        <v>0.4790381682081221</v>
       </c>
       <c r="AU76" t="n">
-        <v>-0.9974230850304571</v>
+        <v>-0.9870572887662219</v>
       </c>
       <c r="AV76" t="n">
-        <v>1.135663005660806</v>
+        <v>1.097159814205168</v>
       </c>
       <c r="AW76" t="n">
-        <v>298.5651688180437</v>
+        <v>295.8882042026054</v>
       </c>
       <c r="AX76" t="n">
-        <v>0.1474031516520008</v>
+        <v>0.08116618396955894</v>
       </c>
       <c r="AY76" t="n">
-        <v>0.5291573742373916</v>
+        <v>0.537819205203473</v>
       </c>
       <c r="AZ76" t="n">
-        <v>0.5493043016641629</v>
+        <v>0.5439094105693297</v>
       </c>
       <c r="BA76" t="n">
-        <v>74.43418196644291</v>
+        <v>81.4178444178914</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>486</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>486</v>
+        <v>75</v>
       </c>
       <c r="C77" t="n">
         <v>486</v>
@@ -13059,36 +13059,36 @@
         <v>-0.2699523614806641</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.1527702563121558</v>
+        <v>0.1571207178879481</v>
       </c>
       <c r="AU77" t="n">
-        <v>0.9491022935695431</v>
+        <v>0.9299839181760882</v>
       </c>
       <c r="AV77" t="n">
-        <v>0.9613188414218505</v>
+        <v>0.9431632987217925</v>
       </c>
       <c r="AW77" t="n">
-        <v>80.85593824329416</v>
+        <v>80.41043947139515</v>
       </c>
       <c r="AX77" t="n">
-        <v>0.19529311649664</v>
+        <v>0.1996051043490602</v>
       </c>
       <c r="AY77" t="n">
-        <v>-0.5095279538942711</v>
+        <v>-0.5483700911685252</v>
       </c>
       <c r="AZ77" t="n">
-        <v>0.5456721883609724</v>
+        <v>0.5835682946925542</v>
       </c>
       <c r="BA77" t="n">
-        <v>290.9709509038581</v>
+        <v>290.0013575057071</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>489</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>489</v>
+        <v>76</v>
       </c>
       <c r="C78" t="n">
         <v>489</v>
@@ -13222,36 +13222,36 @@
         <v>-0.4074832249016944</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.5549878831139782</v>
+        <v>0.4889050622484788</v>
       </c>
       <c r="AU78" t="n">
-        <v>1.506812931564361</v>
+        <v>1.479246869658961</v>
       </c>
       <c r="AV78" t="n">
-        <v>1.605769834419902</v>
+        <v>1.557947194640442</v>
       </c>
       <c r="AW78" t="n">
-        <v>69.78028740771595</v>
+        <v>71.71079151249216</v>
       </c>
       <c r="AX78" t="n">
-        <v>0.145935305754711</v>
+        <v>0.07753598536902796</v>
       </c>
       <c r="AY78" t="n">
-        <v>-0.8071279047589275</v>
+        <v>-0.8595806883293311</v>
       </c>
       <c r="AZ78" t="n">
-        <v>0.8202149523791049</v>
+        <v>0.8630705583994119</v>
       </c>
       <c r="BA78" t="n">
-        <v>280.2488179948361</v>
+        <v>275.1542509303512</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>498</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>498</v>
+        <v>77</v>
       </c>
       <c r="C79" t="n">
         <v>498</v>
@@ -13385,36 +13385,36 @@
         <v>0.03080519604803292</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.2211429641105888</v>
+        <v>0.2135205186859237</v>
       </c>
       <c r="AU79" t="n">
-        <v>-1.039899634930759</v>
+        <v>-1.028890443053779</v>
       </c>
       <c r="AV79" t="n">
-        <v>1.063153545497894</v>
+        <v>1.050812331345282</v>
       </c>
       <c r="AW79" t="n">
-        <v>282.0055599805478</v>
+        <v>281.7238958045103</v>
       </c>
       <c r="AX79" t="n">
-        <v>0.186902814961966</v>
+        <v>0.1788546557185576</v>
       </c>
       <c r="AY79" t="n">
-        <v>0.5518232843026527</v>
+        <v>0.5615217340046657</v>
       </c>
       <c r="AZ79" t="n">
-        <v>0.5826161681066474</v>
+        <v>0.5893179495245416</v>
       </c>
       <c r="BA79" t="n">
-        <v>71.28873452091221</v>
+        <v>72.33239794741812</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>529</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>529</v>
+        <v>78</v>
       </c>
       <c r="C80" t="n">
         <v>529</v>
@@ -13548,36 +13548,36 @@
         <v>0.03779347455689295</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.4041800686423266</v>
+        <v>0.364505561792039</v>
       </c>
       <c r="AU80" t="n">
-        <v>0.8923594388360234</v>
+        <v>0.8741005518868001</v>
       </c>
       <c r="AV80" t="n">
-        <v>0.979625895925306</v>
+        <v>0.9470565344192176</v>
       </c>
       <c r="AW80" t="n">
-        <v>65.63260396194961</v>
+        <v>67.36354915771952</v>
       </c>
       <c r="AX80" t="n">
-        <v>0.1644415647277004</v>
+        <v>0.1233046832608511</v>
       </c>
       <c r="AY80" t="n">
-        <v>-0.4792494014870052</v>
+        <v>-0.5167067580649677</v>
       </c>
       <c r="AZ80" t="n">
-        <v>0.5066764421558863</v>
+        <v>0.5312155106395782</v>
       </c>
       <c r="BA80" t="n">
-        <v>288.9382812850448</v>
+        <v>283.4217995499133</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="C81" t="n">
         <v>530</v>
@@ -13711,36 +13711,36 @@
         <v>0.3203951788314238</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.6095324773255663</v>
+        <v>0.5338982232215548</v>
       </c>
       <c r="AU81" t="n">
-        <v>-0.8095678834560343</v>
+        <v>-0.8020475445749408</v>
       </c>
       <c r="AV81" t="n">
-        <v>1.013375546793056</v>
+        <v>0.9634975747337534</v>
       </c>
       <c r="AW81" t="n">
-        <v>306.9764889617231</v>
+        <v>303.6504773430487</v>
       </c>
       <c r="AX81" t="n">
-        <v>0.1392419099940688</v>
+        <v>0.06098223407405423</v>
       </c>
       <c r="AY81" t="n">
-        <v>0.4289159677632016</v>
+        <v>0.4329932874624475</v>
       </c>
       <c r="AZ81" t="n">
-        <v>0.4509514573665775</v>
+        <v>0.4372665318317884</v>
       </c>
       <c r="BA81" t="n">
-        <v>72.01466184763521</v>
+        <v>81.98326192410924</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>532</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>532</v>
+        <v>80</v>
       </c>
       <c r="C82" t="n">
         <v>532</v>
@@ -13874,36 +13874,36 @@
         <v>0.09508966386791985</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.05043139597944191</v>
+        <v>0.07270265807272484</v>
       </c>
       <c r="AU82" t="n">
-        <v>-0.6440699432393143</v>
+        <v>-0.6390564145606409</v>
       </c>
       <c r="AV82" t="n">
-        <v>0.646041343479447</v>
+        <v>0.6431786512952223</v>
       </c>
       <c r="AW82" t="n">
-        <v>274.4771884692365</v>
+        <v>276.490385800611</v>
       </c>
       <c r="AX82" t="n">
-        <v>0.2078515469662613</v>
+        <v>0.2306639483325192</v>
       </c>
       <c r="AY82" t="n">
-        <v>0.3406046186130797</v>
+        <v>0.3406430447112822</v>
       </c>
       <c r="AZ82" t="n">
-        <v>0.3990160044369517</v>
+        <v>0.4113921984803792</v>
       </c>
       <c r="BA82" t="n">
-        <v>58.60666748494955</v>
+        <v>55.89639392553998</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>536</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>536</v>
+        <v>81</v>
       </c>
       <c r="C83" t="n">
         <v>536</v>
@@ -14037,36 +14037,36 @@
         <v>-0.08592750736637103</v>
       </c>
       <c r="AT83" t="n">
-        <v>-0.1333997560396407</v>
+        <v>-0.07893738498223565</v>
       </c>
       <c r="AU83" t="n">
-        <v>0.7281491198327972</v>
+        <v>0.7123775393870923</v>
       </c>
       <c r="AV83" t="n">
-        <v>0.7402679485326329</v>
+        <v>0.7167376572854547</v>
       </c>
       <c r="AW83" t="n">
-        <v>100.381682631085</v>
+        <v>96.32305620947882</v>
       </c>
       <c r="AX83" t="n">
-        <v>0.2304102380956764</v>
+        <v>0.2864549064426428</v>
       </c>
       <c r="AY83" t="n">
-        <v>-0.3916251398402626</v>
+        <v>-0.4250750265622322</v>
       </c>
       <c r="AZ83" t="n">
-        <v>0.4543777371023052</v>
+        <v>0.5125867649793014</v>
       </c>
       <c r="BA83" t="n">
-        <v>300.4701650934244</v>
+        <v>303.9757377496847</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="C84" t="n">
         <v>541</v>
@@ -14200,36 +14200,36 @@
         <v>0.2621740643405703</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.09207197541287468</v>
+        <v>0.1070514568958089</v>
       </c>
       <c r="AU84" t="n">
-        <v>-0.2120431479246691</v>
+        <v>-0.2135735627947513</v>
       </c>
       <c r="AV84" t="n">
-        <v>0.2311699488217102</v>
+        <v>0.2389009860765728</v>
       </c>
       <c r="AW84" t="n">
-        <v>293.4711314688888</v>
+        <v>296.6218270073941</v>
       </c>
       <c r="AX84" t="n">
-        <v>0.2027416569417938</v>
+        <v>0.2180264394155824</v>
       </c>
       <c r="AY84" t="n">
-        <v>0.1100708179308557</v>
+        <v>0.09956584840255904</v>
       </c>
       <c r="AZ84" t="n">
-        <v>0.2306940927277324</v>
+        <v>0.2396849733553566</v>
       </c>
       <c r="BA84" t="n">
-        <v>28.49805301695975</v>
+        <v>24.54469561850659</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>542</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>542</v>
+        <v>83</v>
       </c>
       <c r="C85" t="n">
         <v>542</v>
@@ -14363,36 +14363,36 @@
         <v>-0.05069837558172083</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.4625126363618701</v>
+        <v>0.4126233752493563</v>
       </c>
       <c r="AU85" t="n">
-        <v>-0.5764200608270874</v>
+        <v>-0.5724312301911897</v>
       </c>
       <c r="AV85" t="n">
-        <v>0.739038581752205</v>
+        <v>0.7056454939276307</v>
       </c>
       <c r="AW85" t="n">
-        <v>308.7431452104104</v>
+        <v>305.7850476287167</v>
       </c>
       <c r="AX85" t="n">
-        <v>0.1572833308619067</v>
+        <v>0.1056013190249616</v>
       </c>
       <c r="AY85" t="n">
-        <v>0.3045059676096438</v>
+        <v>0.3028934325126297</v>
       </c>
       <c r="AZ85" t="n">
-        <v>0.3427271954148101</v>
+        <v>0.3207741729614382</v>
       </c>
       <c r="BA85" t="n">
-        <v>62.68275548380814</v>
+        <v>70.77930846989625</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>548</v>
+        <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>548</v>
+        <v>84</v>
       </c>
       <c r="C86" t="n">
         <v>548</v>
@@ -14526,36 +14526,36 @@
         <v>0.2572757412764862</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.1853675922084094</v>
+        <v>0.184009856994642</v>
       </c>
       <c r="AU86" t="n">
-        <v>0.1393041586969417</v>
+        <v>0.1324518587829823</v>
       </c>
       <c r="AV86" t="n">
-        <v>0.2318766759969745</v>
+        <v>0.2267225669540985</v>
       </c>
       <c r="AW86" t="n">
-        <v>36.92494361476944</v>
+        <v>35.74666040249496</v>
       </c>
       <c r="AX86" t="n">
-        <v>0.1912929607882699</v>
+        <v>0.1897121314687035</v>
       </c>
       <c r="AY86" t="n">
-        <v>-0.07741160407019675</v>
+        <v>-0.096491027072655</v>
       </c>
       <c r="AZ86" t="n">
-        <v>0.2063626741730768</v>
+        <v>0.2128408117160205</v>
       </c>
       <c r="BA86" t="n">
-        <v>337.9680193211422</v>
+        <v>333.0412867058681</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>552</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>552</v>
+        <v>85</v>
       </c>
       <c r="C87" t="n">
         <v>552</v>
@@ -14689,36 +14689,36 @@
         <v>-0.1178570093243185</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.04321126398380615</v>
+        <v>0.0667468605125428</v>
       </c>
       <c r="AU87" t="n">
-        <v>0.2969146842496178</v>
+        <v>0.287675045418045</v>
       </c>
       <c r="AV87" t="n">
-        <v>0.3000425687433842</v>
+        <v>0.2953169062965327</v>
       </c>
       <c r="AW87" t="n">
-        <v>81.71963357616241</v>
+        <v>76.93726770263682</v>
       </c>
       <c r="AX87" t="n">
-        <v>0.2087375596241499</v>
+        <v>0.2328551878329727</v>
       </c>
       <c r="AY87" t="n">
-        <v>-0.1615141502021299</v>
+        <v>-0.184439978436449</v>
       </c>
       <c r="AZ87" t="n">
-        <v>0.2639283795149013</v>
+        <v>0.2970515849921808</v>
       </c>
       <c r="BA87" t="n">
-        <v>322.2684929800705</v>
+        <v>321.617953163064</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>558</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>558</v>
+        <v>86</v>
       </c>
       <c r="C88" t="n">
         <v>558</v>
@@ -14852,36 +14852,36 @@
         <v>0.04318221507036268</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.3894665267456833</v>
+        <v>0.3523685431083593</v>
       </c>
       <c r="AU88" t="n">
-        <v>0.8324103755830925</v>
+        <v>0.8150595417684955</v>
       </c>
       <c r="AV88" t="n">
-        <v>0.9190164355623522</v>
+        <v>0.8879671428606902</v>
       </c>
       <c r="AW88" t="n">
-        <v>64.92613899834356</v>
+        <v>66.62008764852061</v>
       </c>
       <c r="AX88" t="n">
-        <v>0.1662471251205963</v>
+        <v>0.1277700994353739</v>
       </c>
       <c r="AY88" t="n">
-        <v>-0.4472599842820564</v>
+        <v>-0.4832543142649824</v>
       </c>
       <c r="AZ88" t="n">
-        <v>0.477157835680028</v>
+        <v>0.4998599109404991</v>
       </c>
       <c r="BA88" t="n">
-        <v>290.3901666103001</v>
+        <v>284.8098411204983</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>559</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>559</v>
+        <v>87</v>
       </c>
       <c r="C89" t="n">
         <v>559</v>
@@ -15015,36 +15015,36 @@
         <v>-0.4192326542455967</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.06588637276830059</v>
+        <v>0.08545127722641795</v>
       </c>
       <c r="AU89" t="n">
-        <v>-0.687535554588325</v>
+        <v>-0.681863648906038</v>
       </c>
       <c r="AV89" t="n">
-        <v>0.690685277778265</v>
+        <v>0.6871971743823477</v>
       </c>
       <c r="AW89" t="n">
-        <v>275.4739257876497</v>
+        <v>277.1430785353168</v>
       </c>
       <c r="AX89" t="n">
-        <v>0.2059550019902719</v>
+        <v>0.2259735139140338</v>
       </c>
       <c r="AY89" t="n">
-        <v>0.3637983017177725</v>
+        <v>0.3648974840967666</v>
       </c>
       <c r="AZ89" t="n">
-        <v>0.4180510341783026</v>
+        <v>0.429201820698382</v>
       </c>
       <c r="BA89" t="n">
-        <v>60.48475211025086</v>
+        <v>58.23091792819642</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>561</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>561</v>
+        <v>88</v>
       </c>
       <c r="C90" t="n">
         <v>561</v>
@@ -15178,36 +15178,36 @@
         <v>-0.2343708860495968</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.2351840648915547</v>
+        <v>0.2251028490123076</v>
       </c>
       <c r="AU90" t="n">
-        <v>0.7245382902136327</v>
+        <v>0.7088214032856638</v>
       </c>
       <c r="AV90" t="n">
-        <v>0.7617527672182158</v>
+        <v>0.7437063092305426</v>
       </c>
       <c r="AW90" t="n">
-        <v>72.01664578773894</v>
+        <v>72.38153448244547</v>
       </c>
       <c r="AX90" t="n">
-        <v>0.1851797726366809</v>
+        <v>0.174593318851074</v>
       </c>
       <c r="AY90" t="n">
-        <v>-0.3896983651939917</v>
+        <v>-0.4230601314437414</v>
       </c>
       <c r="AZ90" t="n">
-        <v>0.4314584151788473</v>
+        <v>0.4576709536387781</v>
       </c>
       <c r="BA90" t="n">
-        <v>295.4164804502969</v>
+        <v>292.4255233328105</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>573</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>573</v>
+        <v>89</v>
       </c>
       <c r="C91" t="n">
         <v>573</v>
@@ -15341,36 +15341,36 @@
         <v>0.2532773358168329</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.2081505537160407</v>
+        <v>0.2028032400855454</v>
       </c>
       <c r="AU91" t="n">
-        <v>-0.2193777103066646</v>
+        <v>-0.2207970279885558</v>
       </c>
       <c r="AV91" t="n">
-        <v>0.3024123555539509</v>
+        <v>0.2998007367532216</v>
       </c>
       <c r="AW91" t="n">
-        <v>313.4957231287025</v>
+        <v>312.5676392118108</v>
       </c>
       <c r="AX91" t="n">
-        <v>0.1884971680947081</v>
+        <v>0.1827977253023054</v>
       </c>
       <c r="AY91" t="n">
-        <v>0.113984613465299</v>
+        <v>0.1036586402256105</v>
       </c>
       <c r="AZ91" t="n">
-        <v>0.22028089905064</v>
+        <v>0.2101430990280662</v>
       </c>
       <c r="BA91" t="n">
-        <v>31.16143716687766</v>
+        <v>29.55616106375592</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>574</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>574</v>
+        <v>90</v>
       </c>
       <c r="C92" t="n">
         <v>574</v>
@@ -15504,36 +15504,36 @@
         <v>-0.02464047126669829</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.1853675922084095</v>
+        <v>0.1840098569946421</v>
       </c>
       <c r="AU92" t="n">
-        <v>1.907515651077743</v>
+        <v>1.873880113841724</v>
       </c>
       <c r="AV92" t="n">
-        <v>1.916501266200387</v>
+        <v>1.882893068796701</v>
       </c>
       <c r="AW92" t="n">
-        <v>84.4495676758942</v>
+        <v>84.39169281963933</v>
       </c>
       <c r="AX92" t="n">
-        <v>0.1912929607882699</v>
+        <v>0.1897121314687035</v>
       </c>
       <c r="AY92" t="n">
-        <v>-1.020946866626433</v>
+        <v>-1.083178597582188</v>
       </c>
       <c r="AZ92" t="n">
-        <v>1.038713387475811</v>
+        <v>1.099666570868877</v>
       </c>
       <c r="BA92" t="n">
-        <v>280.6123591247381</v>
+        <v>279.9342455623695</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>584</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>584</v>
+        <v>91</v>
       </c>
       <c r="C93" t="n">
         <v>584</v>
@@ -15667,36 +15667,36 @@
         <v>-0.07852632045154359</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.1184364812260669</v>
+        <v>0.1287992115757133</v>
       </c>
       <c r="AU93" t="n">
-        <v>0.9731721236211521</v>
+        <v>0.9536891606354596</v>
       </c>
       <c r="AV93" t="n">
-        <v>0.9803525805946122</v>
+        <v>0.9623472616556317</v>
       </c>
       <c r="AW93" t="n">
-        <v>83.061142665883</v>
+        <v>82.30853279390057</v>
       </c>
       <c r="AX93" t="n">
-        <v>0.1995063579356834</v>
+        <v>0.2100250695538235</v>
       </c>
       <c r="AY93" t="n">
-        <v>-0.5223718549294635</v>
+        <v>-0.561801404243084</v>
       </c>
       <c r="AZ93" t="n">
-        <v>0.5591736239122956</v>
+        <v>0.5997760812591558</v>
       </c>
       <c r="BA93" t="n">
-        <v>290.9030577440128</v>
+        <v>290.4978642789541</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>601</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>601</v>
+        <v>92</v>
       </c>
       <c r="C94" t="n">
         <v>601</v>
@@ -15830,28 +15830,28 @@
         <v>-0.3364335588197242</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.1740700467505761</v>
+        <v>0.1746906515127367</v>
       </c>
       <c r="AU94" t="n">
-        <v>0.1649524919426896</v>
+        <v>0.1577116947255535</v>
       </c>
       <c r="AV94" t="n">
-        <v>0.2398118132491618</v>
+        <v>0.2353503821521235</v>
       </c>
       <c r="AW94" t="n">
-        <v>43.45947846989752</v>
+        <v>42.07589965109416</v>
       </c>
       <c r="AX94" t="n">
-        <v>0.1926793299411833</v>
+        <v>0.1931408261075739</v>
       </c>
       <c r="AY94" t="n">
-        <v>-0.09109781013063387</v>
+        <v>-0.1108031677452572</v>
       </c>
       <c r="AZ94" t="n">
-        <v>0.2131293860479601</v>
+        <v>0.2226672869819447</v>
       </c>
       <c r="BA94" t="n">
-        <v>334.695453076614</v>
+        <v>330.1574915249208</v>
       </c>
     </row>
   </sheetData>
